--- a/simulation_data/two_step_algorithm/2s_error_level_12_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_12_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>94.45599775152635</v>
+        <v>94.4554689626319</v>
       </c>
       <c r="D2" t="n">
-        <v>17.17154993395662</v>
+        <v>16.26998894059085</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.55521663853669</v>
+        <v>94.69678811034038</v>
       </c>
       <c r="D3" t="n">
-        <v>16.39656624883263</v>
+        <v>17.4121770392731</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.33906265302463</v>
+        <v>89.47524781680417</v>
       </c>
       <c r="D4" t="n">
-        <v>15.98714485425783</v>
+        <v>17.106223685861</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.66562318339258</v>
+        <v>88.92550858655605</v>
       </c>
       <c r="D5" t="n">
-        <v>17.26009031937895</v>
+        <v>16.75733606837041</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>90.95646387138203</v>
+        <v>89.04753167100172</v>
       </c>
       <c r="D6" t="n">
-        <v>16.82994027021694</v>
+        <v>15.2358986366218</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.8425706085242</v>
+        <v>84.52728837524229</v>
       </c>
       <c r="D7" t="n">
-        <v>16.88283302018099</v>
+        <v>14.22138786636282</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.82265603682055</v>
+        <v>86.09386397356904</v>
       </c>
       <c r="D8" t="n">
-        <v>14.69774791806362</v>
+        <v>15.22308218531917</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>87.57668618908785</v>
+        <v>85.18268983974245</v>
       </c>
       <c r="D9" t="n">
-        <v>17.7590585758424</v>
+        <v>16.84547006571375</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>86.89180589818416</v>
+        <v>85.24567366789877</v>
       </c>
       <c r="D10" t="n">
-        <v>17.41217000764319</v>
+        <v>16.29530057975381</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.54632822684917</v>
+        <v>81.537892520786</v>
       </c>
       <c r="D11" t="n">
-        <v>17.60988099500791</v>
+        <v>17.37994951403689</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.63841880551225</v>
+        <v>81.2232192733661</v>
       </c>
       <c r="D12" t="n">
-        <v>18.36280389286302</v>
+        <v>17.55380157893176</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>83.64167425460145</v>
+        <v>81.79915088378446</v>
       </c>
       <c r="D13" t="n">
-        <v>17.34081105479683</v>
+        <v>15.59926585496961</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>83.27439925847446</v>
+        <v>80.92565651179642</v>
       </c>
       <c r="D14" t="n">
-        <v>17.15740421054588</v>
+        <v>16.27159746022718</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>81.15104828098882</v>
+        <v>81.5932812158099</v>
       </c>
       <c r="D15" t="n">
-        <v>15.70431374321748</v>
+        <v>16.36469356778762</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.14609939790058</v>
+        <v>77.65153757337453</v>
       </c>
       <c r="D16" t="n">
-        <v>16.82398663106262</v>
+        <v>15.69611815484946</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.87168031256424</v>
+        <v>77.43934449368358</v>
       </c>
       <c r="D17" t="n">
-        <v>16.20635633227169</v>
+        <v>15.14455319474015</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.37410276814961</v>
+        <v>75.17962910320563</v>
       </c>
       <c r="D18" t="n">
-        <v>15.66129173669332</v>
+        <v>16.89137691822735</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.51319177770843</v>
+        <v>73.08550972074521</v>
       </c>
       <c r="D19" t="n">
-        <v>15.98140638706222</v>
+        <v>14.38576779274313</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.71267171728776</v>
+        <v>73.41776243885138</v>
       </c>
       <c r="D20" t="n">
-        <v>15.86181487416843</v>
+        <v>14.56695268278558</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>74.29290254294003</v>
+        <v>71.95689412815642</v>
       </c>
       <c r="D21" t="n">
-        <v>16.65988231452688</v>
+        <v>15.2512004308829</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.60192804604638</v>
+        <v>69.74547337484603</v>
       </c>
       <c r="D22" t="n">
-        <v>19.30852298594459</v>
+        <v>15.89049481140247</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.67234255989874</v>
+        <v>70.96827249949162</v>
       </c>
       <c r="D23" t="n">
-        <v>18.04540349782442</v>
+        <v>17.35032742567477</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>74.28093426036713</v>
+        <v>68.10378001713362</v>
       </c>
       <c r="D24" t="n">
-        <v>18.54740051773922</v>
+        <v>16.51274047766703</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.27795174500868</v>
+        <v>68.19314221104101</v>
       </c>
       <c r="D25" t="n">
-        <v>17.58857638204276</v>
+        <v>17.5234561162003</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.64122584644946</v>
+        <v>68.7144492580433</v>
       </c>
       <c r="D26" t="n">
-        <v>17.24784663359299</v>
+        <v>17.00697042557098</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>68.31921862547715</v>
+        <v>65.20867578777401</v>
       </c>
       <c r="D27" t="n">
-        <v>16.52932075089118</v>
+        <v>14.3802128761568</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.25613399626872</v>
+        <v>65.3974115300004</v>
       </c>
       <c r="D28" t="n">
-        <v>17.51275651935268</v>
+        <v>16.90413834780787</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.20401684469397</v>
+        <v>61.59980904679121</v>
       </c>
       <c r="D29" t="n">
-        <v>18.81849012374679</v>
+        <v>15.80095505488142</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.93394999416742</v>
+        <v>62.17234468972753</v>
       </c>
       <c r="D30" t="n">
-        <v>15.37066544705805</v>
+        <v>15.69703452611773</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.65375540766731</v>
+        <v>60.99754357846644</v>
       </c>
       <c r="D31" t="n">
-        <v>17.86974426775894</v>
+        <v>14.81743085424649</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>56.99318019966377</v>
+        <v>62.6465938534952</v>
       </c>
       <c r="D32" t="n">
-        <v>15.25832858766869</v>
+        <v>16.02632557625347</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.23680167364498</v>
+        <v>58.59190925289148</v>
       </c>
       <c r="D33" t="n">
-        <v>16.38646799956815</v>
+        <v>15.93529414009001</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.60906896131729</v>
+        <v>55.35902331326078</v>
       </c>
       <c r="D34" t="n">
-        <v>15.59080151331601</v>
+        <v>17.20889027178381</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.85614052780602</v>
+        <v>60.04826626180206</v>
       </c>
       <c r="D35" t="n">
-        <v>16.91072745019481</v>
+        <v>14.47079056598756</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.52928395386716</v>
+        <v>56.51456216839305</v>
       </c>
       <c r="D36" t="n">
-        <v>16.77496316767067</v>
+        <v>16.47452711831085</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>59.33425575449355</v>
+        <v>55.6334583126982</v>
       </c>
       <c r="D37" t="n">
-        <v>17.79866729618045</v>
+        <v>15.62508470215422</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>56.685540857063</v>
+        <v>52.53084430107347</v>
       </c>
       <c r="D38" t="n">
-        <v>15.21714488303555</v>
+        <v>15.72236449738222</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>55.35901549459484</v>
+        <v>55.22594225030831</v>
       </c>
       <c r="D39" t="n">
-        <v>16.20524465363695</v>
+        <v>13.56111265636952</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.09529025082647</v>
+        <v>54.52612538696404</v>
       </c>
       <c r="D40" t="n">
-        <v>17.8340137392184</v>
+        <v>16.22558806049088</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.00657496456096</v>
+        <v>50.61624952313774</v>
       </c>
       <c r="D41" t="n">
-        <v>16.1147457663776</v>
+        <v>14.57249062023894</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.39822582963163</v>
+        <v>50.06042464605839</v>
       </c>
       <c r="D42" t="n">
-        <v>16.88520428346736</v>
+        <v>17.34628077489351</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.87310866843399</v>
+        <v>50.03480072861605</v>
       </c>
       <c r="D43" t="n">
-        <v>17.92300843546845</v>
+        <v>13.27715423851389</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.01959319410281</v>
+        <v>49.07328187043808</v>
       </c>
       <c r="D44" t="n">
-        <v>14.36575707618394</v>
+        <v>16.65376648000333</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>45.74968228261939</v>
+        <v>46.48915050242843</v>
       </c>
       <c r="D45" t="n">
-        <v>16.92823385453987</v>
+        <v>17.92410873890509</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.6119360564062</v>
+        <v>44.85277683163896</v>
       </c>
       <c r="D46" t="n">
-        <v>17.50352720646154</v>
+        <v>15.55257399890973</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.90281981971225</v>
+        <v>45.88342532075814</v>
       </c>
       <c r="D47" t="n">
-        <v>16.93119295563327</v>
+        <v>15.9775424610491</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.06909425846873</v>
+        <v>43.08284734079047</v>
       </c>
       <c r="D48" t="n">
-        <v>14.0776691266527</v>
+        <v>16.92185618089327</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>46.01098828498431</v>
+        <v>41.73062909122716</v>
       </c>
       <c r="D49" t="n">
-        <v>16.93354508762193</v>
+        <v>16.3816850196169</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.01726609696934</v>
+        <v>40.62295213324214</v>
       </c>
       <c r="D50" t="n">
-        <v>15.89806547927011</v>
+        <v>16.36645284002184</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.11293549308585</v>
+        <v>41.12439935872538</v>
       </c>
       <c r="D51" t="n">
-        <v>15.48865823321551</v>
+        <v>16.86910049569207</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>43.91575631234921</v>
+        <v>42.27242096530441</v>
       </c>
       <c r="D52" t="n">
-        <v>16.02437996757855</v>
+        <v>17.06292767832624</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.08397095783093</v>
+        <v>39.6420940767543</v>
       </c>
       <c r="D53" t="n">
-        <v>16.18872951079604</v>
+        <v>14.28293889618732</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.97657430601189</v>
+        <v>37.14877388582691</v>
       </c>
       <c r="D54" t="n">
-        <v>15.38185613245704</v>
+        <v>16.4917810401443</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.98476000943215</v>
+        <v>37.88440952055578</v>
       </c>
       <c r="D55" t="n">
-        <v>15.04976843908262</v>
+        <v>15.80989948898738</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.06784259660354</v>
+        <v>36.06098921228005</v>
       </c>
       <c r="D56" t="n">
-        <v>18.98578367792574</v>
+        <v>16.4158191060213</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>38.82999745994894</v>
+        <v>32.19684937789444</v>
       </c>
       <c r="D57" t="n">
-        <v>14.9067862618952</v>
+        <v>15.88212835718367</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.03112558761323</v>
+        <v>34.36417919384981</v>
       </c>
       <c r="D58" t="n">
-        <v>16.86190806419213</v>
+        <v>16.97309200341449</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.48559775074531</v>
+        <v>31.64370993501411</v>
       </c>
       <c r="D59" t="n">
-        <v>15.37652644318102</v>
+        <v>15.67041141503291</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.86046950479968</v>
+        <v>32.32159054191456</v>
       </c>
       <c r="D60" t="n">
-        <v>18.05352977847623</v>
+        <v>15.78345308930135</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.87902047402542</v>
+        <v>31.81589013591702</v>
       </c>
       <c r="D61" t="n">
-        <v>15.53231256006666</v>
+        <v>15.72102074578441</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>32.86085215187468</v>
+        <v>31.4380920228726</v>
       </c>
       <c r="D62" t="n">
-        <v>16.33543696939877</v>
+        <v>15.50917818825922</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>25.44513124721193</v>
+        <v>28.82195460462438</v>
       </c>
       <c r="D63" t="n">
-        <v>15.62261662617333</v>
+        <v>16.20519820032365</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.29831856744857</v>
+        <v>28.35372692395328</v>
       </c>
       <c r="D64" t="n">
-        <v>15.60906433117848</v>
+        <v>15.78160361875935</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.74425047246198</v>
+        <v>27.57184693660999</v>
       </c>
       <c r="D65" t="n">
-        <v>16.94974470797352</v>
+        <v>15.00234241819049</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>23.06798964963972</v>
+        <v>24.50511142109312</v>
       </c>
       <c r="D66" t="n">
-        <v>16.02414939939774</v>
+        <v>14.09592269131653</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.66904685303739</v>
+        <v>25.00421535444594</v>
       </c>
       <c r="D67" t="n">
-        <v>14.63668704788791</v>
+        <v>16.43474168497281</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.29768690548741</v>
+        <v>22.77813225023178</v>
       </c>
       <c r="D68" t="n">
-        <v>14.89301764702657</v>
+        <v>15.38262599433556</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>19.74483569875992</v>
+        <v>22.21139746762957</v>
       </c>
       <c r="D69" t="n">
-        <v>15.06559328775717</v>
+        <v>15.76969670263939</v>
       </c>
     </row>
   </sheetData>
